--- a/BackTest/2019-10-30 BackTest OMG.xlsx
+++ b/BackTest/2019-10-30 BackTest OMG.xlsx
@@ -4721,13 +4721,17 @@
         <v>1194.45</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1184</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1184</v>
+      </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
@@ -4756,14 +4760,22 @@
         <v>1193.5</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1184</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4791,14 +4803,22 @@
         <v>1191.7</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1184</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4867,8 +4893,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4902,8 +4934,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4937,8 +4975,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4972,8 +5016,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5001,18 +5051,18 @@
         <v>1185</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1183</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1184</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -5042,15 +5092,15 @@
         <v>1184.7</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1185</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1184</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5083,15 +5133,15 @@
         <v>1184.35</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>1185</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1184</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5124,15 +5174,15 @@
         <v>1184.05</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>1186</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1184</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5165,15 +5215,15 @@
         <v>1183.75</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>1186</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1184</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,15 +5256,15 @@
         <v>1183.45</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>1186</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1184</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5247,15 +5297,15 @@
         <v>1183.4</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1192</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1184</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5288,15 +5338,15 @@
         <v>1183.55</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1192</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1184</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5337,7 +5387,9 @@
       <c r="J140" t="n">
         <v>1192</v>
       </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1184</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5370,13 +5422,17 @@
         <v>1184.25</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1196</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1184</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5415,7 +5471,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1184</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5454,7 +5512,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1184</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,7 +5553,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1184</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5532,7 +5594,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1184</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5571,7 +5635,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1184</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5610,7 +5676,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1184</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5649,7 +5717,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1184</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,7 +5758,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1184</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5727,7 +5799,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1184</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5766,7 +5840,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1184</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5805,7 +5881,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1184</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5844,7 +5922,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1184</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5883,7 +5963,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1184</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5922,7 +6004,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1184</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5961,7 +6045,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1184</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6000,7 +6086,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1184</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6039,7 +6127,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1184</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6078,7 +6168,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1184</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6117,7 +6209,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1184</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6156,7 +6250,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1184</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6195,7 +6291,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1184</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6234,7 +6332,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1184</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6273,7 +6373,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1184</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6312,7 +6414,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1184</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6351,7 +6455,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1184</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6390,7 +6496,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1184</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6423,15 +6531,15 @@
         <v>1191.15</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>1182</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1184</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6464,15 +6572,15 @@
         <v>1190.45</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1184</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6505,15 +6613,15 @@
         <v>1190.15</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1184</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6546,15 +6654,15 @@
         <v>1189.85</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1184</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6587,15 +6695,15 @@
         <v>1189.65</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1184</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6628,15 +6736,15 @@
         <v>1189.4</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1184</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6669,15 +6777,15 @@
         <v>1188.95</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1184</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6710,15 +6818,15 @@
         <v>1188.95</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1184</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6751,15 +6859,15 @@
         <v>1189.05</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>1189</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1184</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6792,15 +6900,15 @@
         <v>1188.9</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>1193</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1184</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6833,15 +6941,15 @@
         <v>1188.9</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>1195</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1184</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6874,15 +6982,15 @@
         <v>1188.95</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>1191</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1184</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6915,15 +7023,15 @@
         <v>1189.05</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>1191</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1184</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6956,15 +7064,15 @@
         <v>1188.95</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>1181</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1184</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6997,15 +7105,15 @@
         <v>1187.95</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>1176</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1184</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7038,15 +7146,15 @@
         <v>1187.1</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>1178</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1184</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7079,15 +7187,15 @@
         <v>1186</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1184</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7120,15 +7228,15 @@
         <v>1185</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>1177</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1184</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7161,15 +7269,15 @@
         <v>1184.85</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>1177</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1184</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7202,15 +7310,15 @@
         <v>1184.7</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1184</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7243,15 +7351,15 @@
         <v>1184.7</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>1182</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1184</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7284,15 +7392,15 @@
         <v>1184.35</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1184</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7325,15 +7433,15 @@
         <v>1184.4</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>1188</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1184</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7366,15 +7474,15 @@
         <v>1184.5</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>1189</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1184</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7407,15 +7515,15 @@
         <v>1183.95</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>1176</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1184</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7448,15 +7556,15 @@
         <v>1183.4</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>1176</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1184</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7489,15 +7597,15 @@
         <v>1183.05</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1184</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7530,15 +7638,15 @@
         <v>1182.95</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>1185</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1184</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7571,15 +7679,15 @@
         <v>1183.2</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>1194</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1184</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7612,15 +7720,15 @@
         <v>1183.6</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>1201</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1184</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7653,15 +7761,15 @@
         <v>1183.9</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>1201</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1184</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7694,15 +7802,15 @@
         <v>1184.4</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>1201</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1184</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7741,7 +7849,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1184</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7780,7 +7890,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1184</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7819,7 +7931,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1184</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7858,7 +7972,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1184</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7897,7 +8013,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1184</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7930,15 +8048,15 @@
         <v>1187.3</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1184</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7971,15 +8089,15 @@
         <v>1187.65</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>1184</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1184</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8012,15 +8130,15 @@
         <v>1188.45</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>1196</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1184</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8053,15 +8171,15 @@
         <v>1189.15</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>1196</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1184</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8100,7 +8218,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1184</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8139,7 +8259,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1184</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8178,7 +8300,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1184</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8217,7 +8341,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1184</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8256,7 +8382,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1184</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8295,7 +8423,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1184</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8334,7 +8464,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1184</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8373,7 +8505,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1184</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8412,7 +8546,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1184</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8451,7 +8587,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1184</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8490,7 +8628,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1184</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8529,7 +8669,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1184</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8568,7 +8710,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1184</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8607,7 +8751,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1184</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8646,7 +8792,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1184</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8685,7 +8833,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1184</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8724,7 +8874,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1184</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8763,7 +8915,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1184</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8802,7 +8956,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1184</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8841,7 +8997,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1184</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8880,7 +9038,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1184</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8919,7 +9079,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1184</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8958,7 +9120,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1184</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8997,7 +9161,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1184</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9036,7 +9202,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1184</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9075,7 +9243,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1184</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9114,7 +9284,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1184</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9153,7 +9325,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1184</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9192,7 +9366,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1184</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9231,7 +9407,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1184</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9270,7 +9448,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1184</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9309,7 +9489,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1184</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9348,7 +9530,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1184</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9387,7 +9571,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1184</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9426,7 +9612,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1184</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9465,7 +9653,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1184</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9504,7 +9694,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1184</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9543,7 +9735,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1184</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9582,7 +9776,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1184</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9621,7 +9817,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1184</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9660,7 +9858,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1184</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9699,7 +9899,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1184</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9738,7 +9940,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1184</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9777,7 +9981,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1184</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9816,7 +10022,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1184</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9855,7 +10063,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1184</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9894,7 +10104,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1184</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9933,7 +10145,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1184</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9972,7 +10186,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1184</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10011,7 +10227,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1184</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10050,7 +10268,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1184</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10089,7 +10309,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1184</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10128,7 +10350,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1184</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10167,7 +10391,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1184</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10206,7 +10432,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1184</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10245,7 +10473,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1184</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10284,7 +10514,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1184</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10323,7 +10555,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1184</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10362,7 +10596,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1184</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10401,7 +10637,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1184</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10440,7 +10678,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1184</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10479,7 +10719,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1184</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10515,16 +10757,20 @@
         <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1184</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M271" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10552,11 +10798,17 @@
         <v>0</v>
       </c>
       <c r="I272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10587,11 +10839,17 @@
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10625,10 +10883,16 @@
         <v>1</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M274" t="n">
-        <v>1</v>
+        <v>1.06847972972973</v>
       </c>
     </row>
     <row r="275">
@@ -10727,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
@@ -10762,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
@@ -10797,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
@@ -10867,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest OMG.xlsx
+++ b/BackTest/2019-10-30 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1210,7 +1210,7 @@
         <v>-7040.934579896363</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-10308.03867989636</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-10308.03867989636</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-10324.51307989636</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-10308.51148372717</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-10582.57918372717</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-10582.57918372717</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-10582.57918372717</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-10613.54538372717</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-10582.57918372717</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-10582.57918372717</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6828.189183727169</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-6794.217083727169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-9843.403483727168</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-5958.707783727169</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-5958.707783727169</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-5958.707783727169</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-6101.707783727169</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-5073.276783727169</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-5129.543783727169</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-5110.95088372717</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-5108.624283727169</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-5999.714883727169</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-6004.702383727169</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-5864.633083727169</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-5962.070083727169</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-5900.013464907393</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-7016.910164907393</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-7115.187764907393</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-8386.533764907394</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -6688,11 +6688,17 @@
         <v>-31047.16653808832</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1185</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,15 +6727,17 @@
         <v>-31038.16653808832</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>1184</v>
       </c>
-      <c r="J192" t="n">
-        <v>1184</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,17 +6766,15 @@
         <v>-31038.16653808832</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>1185</v>
       </c>
-      <c r="J193" t="n">
-        <v>1184</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -6799,15 +6805,15 @@
         <v>-30865.98873808832</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1184</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1185</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L194" t="n">
@@ -6838,15 +6844,17 @@
         <v>-30865.98873808832</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>1186</v>
       </c>
-      <c r="J195" t="n">
-        <v>1186</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6875,15 +6883,15 @@
         <v>-30865.98873808832</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
         <v>1186</v>
       </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -6917,12 +6925,10 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1186</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L197" t="n">
@@ -6957,7 +6963,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6990,7 +7000,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7023,7 +7037,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7056,7 +7074,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7089,7 +7111,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7122,7 +7148,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7155,7 +7185,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7188,7 +7222,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7221,7 +7259,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7254,7 +7296,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7287,7 +7333,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7320,7 +7370,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +7407,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7386,7 +7444,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7419,7 +7481,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7452,7 +7518,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7485,7 +7555,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7518,7 +7592,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7551,7 +7629,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7584,7 +7666,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7617,7 +7703,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7650,7 +7740,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7683,7 +7777,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7716,7 +7814,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7749,7 +7851,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7782,7 +7888,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7815,7 +7925,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7848,7 +7962,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7881,7 +7999,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7914,7 +8036,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7947,7 +8073,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7980,7 +8110,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8013,7 +8147,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8046,7 +8184,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8079,7 +8221,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8112,7 +8258,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8145,7 +8295,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8178,7 +8332,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8211,7 +8369,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8244,7 +8406,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8277,7 +8443,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8310,7 +8480,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8343,7 +8517,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8376,7 +8554,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8409,7 +8591,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8442,7 +8628,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8475,7 +8665,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +8702,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8541,7 +8739,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8574,7 +8776,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8607,7 +8813,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8636,15 +8846,13 @@
         <v>-22984.995762522</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>1180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L249" t="n">
@@ -8786,11 +8994,9 @@
         <v>-23021.070862522</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -11415,16 +11621,18 @@
         <v>-16817.65836252199</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L324" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
       <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
@@ -11450,11 +11658,15 @@
         <v>-16719.23596252199</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11483,11 +11695,15 @@
         <v>-16693.66746252199</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11520,7 +11736,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11549,11 +11769,15 @@
         <v>-16286.92006252199</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11582,11 +11806,15 @@
         <v>-11116.15956252199</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11615,11 +11843,15 @@
         <v>-10878.89306252199</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11648,11 +11880,15 @@
         <v>-8985.923669157064</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11681,11 +11917,15 @@
         <v>-6289.736369157064</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11714,11 +11954,15 @@
         <v>-7222.641069157065</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11747,11 +11991,15 @@
         <v>-7348.122769157065</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11780,11 +12028,15 @@
         <v>-6716.922769157065</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11813,11 +12065,15 @@
         <v>-5247.347569157065</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11846,11 +12102,15 @@
         <v>-4078.273506793146</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11879,11 +12139,15 @@
         <v>-4105.763506793146</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11912,11 +12176,15 @@
         <v>-4252.801706793146</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11945,11 +12213,15 @@
         <v>-7472.822606793146</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11978,11 +12250,15 @@
         <v>-4658.102134980003</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12015,7 +12291,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12044,11 +12324,15 @@
         <v>-5084.966272031796</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12081,7 +12365,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12110,11 +12398,15 @@
         <v>-4969.005672031795</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12143,11 +12435,15 @@
         <v>-4979.055172031795</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12176,11 +12472,15 @@
         <v>-4199.343472031795</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12213,7 +12513,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12242,11 +12546,15 @@
         <v>-4011.774272031796</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12275,11 +12583,15 @@
         <v>-3899.177972031795</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12308,11 +12620,15 @@
         <v>-3899.177972031795</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12341,11 +12657,15 @@
         <v>-3878.708872031796</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12374,11 +12694,15 @@
         <v>-3875.398672031796</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12407,11 +12731,15 @@
         <v>-4802.640072031796</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12440,11 +12768,15 @@
         <v>-4554.081972031796</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12473,11 +12805,15 @@
         <v>-3151.562672031796</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12506,11 +12842,15 @@
         <v>-3704.662672031796</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12539,11 +12879,15 @@
         <v>-3780.268972031796</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12576,7 +12920,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12609,7 +12957,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12642,7 +12994,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12671,11 +13027,15 @@
         <v>-4290.263672031795</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12708,7 +13068,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12741,7 +13105,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12774,7 +13142,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12807,7 +13179,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12840,7 +13216,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12873,7 +13253,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12906,7 +13290,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12939,7 +13327,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12968,14 +13360,16 @@
         <v>-5466.570372031796</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
@@ -13001,7 +13395,7 @@
         <v>-5423.741472031796</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13034,7 +13428,7 @@
         <v>-4806.500572031796</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13067,7 +13461,7 @@
         <v>-4860.019772031796</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13100,7 +13494,7 @@
         <v>-5459.955872031795</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13133,7 +13527,7 @@
         <v>-4650.671472031796</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13166,7 +13560,7 @@
         <v>-4651.012972031796</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13199,7 +13593,7 @@
         <v>-4642.537872031797</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13232,7 +13626,7 @@
         <v>-4477.470372031797</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13265,7 +13659,7 @@
         <v>-5264.375372031796</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13298,7 +13692,7 @@
         <v>-5264.375372031796</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13331,7 +13725,7 @@
         <v>-5912.974852810192</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13364,7 +13758,7 @@
         <v>-5912.974852810192</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13397,7 +13791,7 @@
         <v>-5912.974852810192</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13430,7 +13824,7 @@
         <v>-5890.521352810192</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13463,7 +13857,7 @@
         <v>-5890.521352810192</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13496,7 +13890,7 @@
         <v>-6191.358952810192</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13529,7 +13923,7 @@
         <v>-7297.868215359993</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13562,7 +13956,7 @@
         <v>-7297.868215359993</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13595,7 +13989,7 @@
         <v>-6313.519315359993</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13628,7 +14022,7 @@
         <v>-6313.519315359993</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13661,7 +14055,7 @@
         <v>-6336.114915359993</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13694,7 +14088,7 @@
         <v>-6290.274615359993</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13727,7 +14121,7 @@
         <v>-6290.274615359993</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13760,7 +14154,7 @@
         <v>-6364.426215359993</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13793,7 +14187,7 @@
         <v>-6364.426215359993</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13826,7 +14220,7 @@
         <v>-6405.576715359993</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13859,7 +14253,7 @@
         <v>-7095.379715359993</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13892,7 +14286,7 @@
         <v>-7095.379715359993</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13925,7 +14319,7 @@
         <v>-7869.809215359993</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13958,7 +14352,7 @@
         <v>-7922.162115359993</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13991,7 +14385,7 @@
         <v>-7852.162115359993</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14024,7 +14418,7 @@
         <v>-8442.656815359993</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14057,7 +14451,7 @@
         <v>-8442.656815359993</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14090,7 +14484,7 @@
         <v>-7933.334615359993</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14123,7 +14517,7 @@
         <v>-10648.95611535999</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15256,6 +15650,6 @@
       <c r="M440" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest OMG.xlsx
+++ b/BackTest/2019-10-30 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-8640.047046194704</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-9111.630246194703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9121.630246194703</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-8960.495946194704</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-9070.088246194704</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-9065.557746194703</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-9271.627146194704</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-9199.042146194704</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-9490.363146194704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-9490.363146194704</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-9274.035646194705</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8647.771146194706</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8246.427846194705</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8196.472746194706</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8054.947646194706</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-7040.934579896363</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-10308.03867989636</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-10308.03867989636</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-10324.51307989636</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-10308.51148372717</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-10582.57918372717</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-10582.57918372717</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-10582.57918372717</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-10613.54538372717</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-10582.57918372717</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-10582.57918372717</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6828.189183727169</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-6794.217083727169</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-9843.403483727168</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-5958.707783727169</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-5958.707783727169</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-5958.707783727169</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-6101.707783727169</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-5073.276783727169</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-5129.543783727169</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-5110.95088372717</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-5108.624283727169</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-5999.714883727169</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-6004.702383727169</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-5864.633083727169</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-5962.070083727169</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-5900.013464907393</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-7016.910164907393</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-7115.187764907393</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-8386.533764907394</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -6391,10 +6391,14 @@
         <v>-26619.34363808832</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1180</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1180</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
@@ -6424,11 +6428,19 @@
         <v>-26619.34363808832</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1184</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6469,19 @@
         <v>-26619.34363808832</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1184</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +6513,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +6552,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6588,19 @@
         <v>-29253.01053808832</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1174</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6629,19 @@
         <v>-33272.28873808832</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1178</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +6673,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6709,19 @@
         <v>-30783.54743808832</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1183</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1180</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,15 +6750,15 @@
         <v>-31047.16653808832</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1185</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1180</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -6727,12 +6789,12 @@
         <v>-31038.16653808832</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1184</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1180</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6766,12 +6828,12 @@
         <v>-31038.16653808832</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1185</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1180</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6805,12 +6867,12 @@
         <v>-30865.98873808832</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1185</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1180</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6844,12 +6906,12 @@
         <v>-30865.98873808832</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1186</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1180</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6883,12 +6945,12 @@
         <v>-30865.98873808832</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1186</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1180</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6925,7 +6987,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1180</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6962,7 +7026,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1180</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6999,7 +7065,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1180</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7036,7 +7104,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1180</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7073,7 +7143,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1180</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7110,7 +7182,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1180</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7147,7 +7221,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1180</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7184,7 +7260,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1180</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7221,7 +7299,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1180</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7258,7 +7338,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1180</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7295,7 +7377,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1180</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7332,7 +7416,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1180</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7369,7 +7455,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1180</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7406,7 +7494,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1180</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7443,7 +7533,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1180</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7480,7 +7572,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1180</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7517,7 +7611,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1180</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7554,7 +7650,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1180</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7591,7 +7689,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1180</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7628,7 +7728,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1180</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7665,7 +7767,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1180</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7702,7 +7806,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1180</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7739,7 +7845,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1180</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7776,7 +7884,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1180</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7813,7 +7923,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1180</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7850,7 +7962,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1180</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7887,7 +8001,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1180</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7924,7 +8040,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1180</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7961,7 +8079,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1180</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7998,7 +8118,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1180</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8035,7 +8157,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1180</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8072,7 +8196,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1180</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8109,7 +8235,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1180</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8146,7 +8274,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1180</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8183,7 +8313,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1180</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8220,7 +8352,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1180</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8257,7 +8391,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1180</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8294,7 +8430,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1180</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8331,7 +8469,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1180</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8368,7 +8508,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1180</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8405,7 +8547,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1180</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8442,7 +8586,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1180</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8479,7 +8625,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1180</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8516,7 +8664,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1180</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8550,10 +8700,14 @@
         <v>-24294.135762522</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1176</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1180</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8587,10 +8741,14 @@
         <v>-24265.05836252201</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1175</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1180</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8624,10 +8782,14 @@
         <v>-24326.35146252201</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1178</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1180</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8661,10 +8823,14 @@
         <v>-24326.35146252201</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1175</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1180</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8698,10 +8864,14 @@
         <v>-23837.563362522</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1175</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1180</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8735,10 +8905,14 @@
         <v>-23151.173562522</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1180</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1180</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8772,10 +8946,14 @@
         <v>-22901.173562522</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1181</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1180</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8809,10 +8987,14 @@
         <v>-22940.804062522</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1182</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1180</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8846,10 +9028,14 @@
         <v>-22984.995762522</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1180</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1180</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8883,10 +9069,14 @@
         <v>-22974.995762522</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1176</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1180</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8923,7 +9113,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1180</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8957,10 +9149,14 @@
         <v>-23088.571362522</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1176</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1180</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8994,10 +9190,14 @@
         <v>-23021.070862522</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1176</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1180</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9031,10 +9231,14 @@
         <v>-21936.341762522</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1181</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1180</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9071,7 +9275,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1180</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9108,7 +9314,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1180</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9145,7 +9353,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1180</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9182,7 +9392,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>1180</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9219,7 +9431,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1180</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9256,7 +9470,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1180</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9293,7 +9509,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1180</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9330,7 +9548,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1180</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9367,7 +9587,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1180</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9404,7 +9626,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1180</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9441,7 +9665,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1180</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9478,7 +9704,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1180</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9515,7 +9743,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1180</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9552,7 +9782,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>1180</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9589,7 +9821,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1180</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9626,7 +9860,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>1180</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9663,7 +9899,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>1180</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9700,7 +9938,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>1180</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9737,7 +9977,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>1180</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9774,7 +10016,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>1180</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9811,7 +10055,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>1180</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9848,7 +10094,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>1180</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9885,7 +10133,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>1180</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9922,7 +10172,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>1180</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9959,7 +10211,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>1180</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9996,7 +10250,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>1180</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10033,7 +10289,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>1180</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10070,7 +10328,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>1180</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10107,7 +10367,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>1180</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10144,7 +10406,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>1180</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10181,7 +10445,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>1180</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10218,7 +10484,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>1180</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10255,7 +10523,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>1180</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10292,7 +10562,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>1180</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10329,7 +10601,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>1180</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10366,7 +10640,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1180</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10403,7 +10679,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1180</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10440,7 +10718,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1180</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10477,7 +10757,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>1180</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10514,7 +10796,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1180</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10551,7 +10835,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1180</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10588,7 +10874,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1180</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10625,7 +10913,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>1180</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10662,7 +10952,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1180</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10699,7 +10991,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>1180</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10736,7 +11030,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1180</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10773,7 +11069,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1180</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10810,7 +11108,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1180</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10847,7 +11147,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1180</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10884,7 +11186,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1180</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10921,7 +11225,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1180</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10958,7 +11264,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1180</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10995,7 +11303,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1180</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11032,7 +11342,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>1180</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11069,7 +11381,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>1180</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11106,7 +11420,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>1180</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11143,7 +11459,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>1180</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11180,7 +11498,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>1180</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11217,7 +11537,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>1180</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11254,7 +11576,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>1180</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11291,7 +11615,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>1180</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11328,7 +11654,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>1180</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11365,7 +11693,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>1180</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11402,7 +11732,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>1180</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11439,7 +11771,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>1180</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11476,7 +11810,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>1180</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11513,7 +11849,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>1180</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11550,7 +11888,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>1180</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11584,17 +11924,19 @@
         <v>-16817.65836252199</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>1180</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L323" t="n">
-        <v>1</v>
+        <v>1.034830508474576</v>
       </c>
       <c r="M323" t="inlineStr"/>
     </row>
@@ -11621,15 +11963,11 @@
         <v>-16817.65836252199</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11658,15 +11996,11 @@
         <v>-16719.23596252199</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11695,15 +12029,11 @@
         <v>-16693.66746252199</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11732,15 +12062,11 @@
         <v>-16286.92006252199</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11769,15 +12095,11 @@
         <v>-16286.92006252199</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11806,15 +12128,11 @@
         <v>-11116.15956252199</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11843,15 +12161,11 @@
         <v>-10878.89306252199</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11880,15 +12194,11 @@
         <v>-8985.923669157064</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11921,11 +12231,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11958,11 +12264,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11995,11 +12297,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12032,11 +12330,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12069,11 +12363,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12106,11 +12396,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12143,11 +12429,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12180,11 +12462,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12217,11 +12495,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12254,11 +12528,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12291,11 +12561,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12328,11 +12594,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12365,11 +12627,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12402,11 +12660,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12439,11 +12693,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12476,11 +12726,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12513,11 +12759,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12550,11 +12792,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12587,11 +12825,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12624,11 +12858,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +12891,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12698,11 +12924,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12735,11 +12957,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12772,11 +12990,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12809,11 +13023,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12846,11 +13056,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12883,11 +13089,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12920,11 +13122,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12957,11 +13155,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12990,15 +13184,11 @@
         <v>-5003.013872031795</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13027,15 +13217,11 @@
         <v>-4290.263672031795</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13064,15 +13250,11 @@
         <v>-6397.998272031795</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13101,15 +13283,11 @@
         <v>-7386.951672031795</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13142,11 +13320,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13179,11 +13353,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13216,11 +13386,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13253,11 +13419,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13290,11 +13452,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13327,11 +13485,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13360,16 +13514,14 @@
         <v>-5466.570372031796</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
       <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
@@ -13395,7 +13547,7 @@
         <v>-5423.741472031796</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13428,7 +13580,7 @@
         <v>-4806.500572031796</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13461,7 +13613,7 @@
         <v>-4860.019772031796</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13494,7 +13646,7 @@
         <v>-5459.955872031795</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13527,7 +13679,7 @@
         <v>-4650.671472031796</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13560,7 +13712,7 @@
         <v>-4651.012972031796</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13593,7 +13745,7 @@
         <v>-4642.537872031797</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13626,7 +13778,7 @@
         <v>-4477.470372031797</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13659,7 +13811,7 @@
         <v>-5264.375372031796</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13692,7 +13844,7 @@
         <v>-5264.375372031796</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13725,7 +13877,7 @@
         <v>-5912.974852810192</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13758,7 +13910,7 @@
         <v>-5912.974852810192</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13791,7 +13943,7 @@
         <v>-5912.974852810192</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13824,7 +13976,7 @@
         <v>-5890.521352810192</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13857,7 +14009,7 @@
         <v>-5890.521352810192</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13890,7 +14042,7 @@
         <v>-6191.358952810192</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13923,7 +14075,7 @@
         <v>-7297.868215359993</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13956,7 +14108,7 @@
         <v>-7297.868215359993</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13989,7 +14141,7 @@
         <v>-6313.519315359993</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14022,7 +14174,7 @@
         <v>-6313.519315359993</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14055,7 +14207,7 @@
         <v>-6336.114915359993</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14088,7 +14240,7 @@
         <v>-6290.274615359993</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14121,7 +14273,7 @@
         <v>-6290.274615359993</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14154,7 +14306,7 @@
         <v>-6364.426215359993</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14187,7 +14339,7 @@
         <v>-6364.426215359993</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14220,7 +14372,7 @@
         <v>-6405.576715359993</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14253,7 +14405,7 @@
         <v>-7095.379715359993</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14286,7 +14438,7 @@
         <v>-7095.379715359993</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14319,7 +14471,7 @@
         <v>-7869.809215359993</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14352,7 +14504,7 @@
         <v>-7922.162115359993</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14385,7 +14537,7 @@
         <v>-7852.162115359993</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14418,7 +14570,7 @@
         <v>-8442.656815359993</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14451,7 +14603,7 @@
         <v>-8442.656815359993</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14484,7 +14636,7 @@
         <v>-7933.334615359993</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14517,7 +14669,7 @@
         <v>-10648.95611535999</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15650,6 +15802,6 @@
       <c r="M440" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest OMG.xlsx
+++ b/BackTest/2019-10-30 BackTest OMG.xlsx
@@ -451,7 +451,7 @@
         <v>-8640.047046194704</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-9111.630246194703</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9121.630246194703</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-8960.495946194704</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-9070.088246194704</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-9065.557746194703</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-9271.627146194704</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-9199.042146194704</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-9490.363146194704</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-9490.363146194704</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-9274.035646194705</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8647.771146194706</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8246.427846194705</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8196.472746194706</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8054.947646194706</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -6391,14 +6391,10 @@
         <v>-26619.34363808832</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1180</v>
-      </c>
-      <c r="J182" t="n">
-        <v>1180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
@@ -6428,2414 +6424,2044 @@
         <v>-26619.34363808832</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
         <v>1184</v>
       </c>
-      <c r="J183" t="n">
+      <c r="C184" t="n">
+        <v>1184</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1188</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1163</v>
+      </c>
+      <c r="F184" t="n">
+        <v>23592.9077</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-26619.34363808832</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1176</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1176</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1176</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1176</v>
+      </c>
+      <c r="F185" t="n">
+        <v>471</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-27090.34363808832</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
         <v>1180</v>
       </c>
-      <c r="K183" t="inlineStr">
+      <c r="C186" t="n">
+        <v>1174</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1180</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1174</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2778.7113</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-29869.05493808832</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1178</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1178</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1177</v>
+      </c>
+      <c r="F187" t="n">
+        <v>616.0444</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-29253.01053808832</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1177</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1181</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1173</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4019.2782</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-33272.28873808832</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1183</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1177</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1885.922</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-31386.36673808832</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1185</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1185</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1179</v>
+      </c>
+      <c r="F190" t="n">
+        <v>602.8193</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-30783.54743808832</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1184</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1184</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1183</v>
+      </c>
+      <c r="F191" t="n">
+        <v>263.6191</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-31047.16653808832</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1185</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1185</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1185</v>
+      </c>
+      <c r="F192" t="n">
+        <v>9</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-31038.16653808832</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1185</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1185</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1185</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1572.741</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-31038.16653808832</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1186</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1186</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F194" t="n">
+        <v>172.1778</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-30865.98873808832</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1186</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1186</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F195" t="n">
+        <v>6.8222</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-30865.98873808832</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1186</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1186</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F196" t="n">
+        <v>9.322100000000001</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-30865.98873808832</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1192</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1192</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1192</v>
+      </c>
+      <c r="F197" t="n">
+        <v>21.711</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-30844.27773808832</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1192</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1192</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1192</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3.2989</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-30844.27773808832</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1196</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1196</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1192</v>
+      </c>
+      <c r="F199" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-30710.77773808832</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1197</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1197</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1197</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1197</v>
+      </c>
+      <c r="F200" t="n">
+        <v>325.5</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-30385.27773808832</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1198</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1203</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1203</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1198</v>
+      </c>
+      <c r="F201" t="n">
+        <v>179.9959621778886</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-30205.28177591043</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1202</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F202" t="n">
+        <v>727.7071</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-30932.98887591043</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1192</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1192</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1192</v>
+      </c>
+      <c r="F203" t="n">
+        <v>345.3962</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-31278.38507591043</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1201</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1201</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1192</v>
+      </c>
+      <c r="F204" t="n">
+        <v>103.8712</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-31174.51387591043</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1202</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F205" t="n">
+        <v>20.8635</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-31153.65037591043</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1202</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F206" t="n">
+        <v>34.8519</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-31153.65037591043</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1201</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1201</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1201</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1201</v>
+      </c>
+      <c r="F207" t="n">
+        <v>30</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-31183.65037591043</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1201</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1197</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1204</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1196</v>
+      </c>
+      <c r="F208" t="n">
+        <v>862.922</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-32046.57237591043</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1193</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1193</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1193</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1193</v>
+      </c>
+      <c r="F209" t="n">
+        <v>132.2501</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-32178.82247591043</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1193</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1192</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1193</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1192</v>
+      </c>
+      <c r="F210" t="n">
+        <v>511.2496</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-32690.07207591043</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1191</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1192</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1192</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F211" t="n">
+        <v>970.7868999999999</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-32690.07207591043</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1192</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1192</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1192</v>
+      </c>
+      <c r="F212" t="n">
+        <v>708.1974</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-32690.07207591043</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1196</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1196</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1191</v>
+      </c>
+      <c r="F213" t="n">
+        <v>10.7462</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-32700.81827591043</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1187</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.7955</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-32702.61377591043</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1196</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1198</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1175</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2266.5263</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-30436.08747591043</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1196</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1196</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1196</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1196</v>
+      </c>
+      <c r="F216" t="n">
+        <v>50</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-30436.08747591043</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1195</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1195</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1191</v>
+      </c>
+      <c r="F217" t="n">
+        <v>56.8261</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-30492.91357591043</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1190</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F218" t="n">
+        <v>35.4009</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-30528.31447591043</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1185</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1189</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1185</v>
+      </c>
+      <c r="F219" t="n">
+        <v>505.7587</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-31034.07317591043</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1193</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1193</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1183</v>
+      </c>
+      <c r="F220" t="n">
+        <v>217.9397</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-30816.13347591043</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1196</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1196</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1196</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1196</v>
+      </c>
+      <c r="F221" t="n">
+        <v>11.6239</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-30804.50957591043</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1195</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1195</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1195</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1195</v>
+      </c>
+      <c r="F222" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-30833.00957591043</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1197</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1197</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1179.1679</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-29653.84167591043</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1197</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1188</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1197</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1188</v>
+      </c>
+      <c r="F224" t="n">
+        <v>322.618</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-29976.45967591043</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1180</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1175</v>
+      </c>
+      <c r="F225" t="n">
+        <v>272.2252</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-30248.68487591043</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1181</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1183</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1181</v>
+      </c>
+      <c r="F226" t="n">
+        <v>351.4428</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-29897.24207591043</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1182</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1181</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1182</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1181</v>
+      </c>
+      <c r="F227" t="n">
+        <v>182.7676</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-29897.24207591043</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1187</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F228" t="n">
+        <v>5601.869</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-24295.37307591043</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1187</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F229" t="n">
+        <v>34.1701</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-24295.37307591043</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1187</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1165.4372</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-24295.37307591043</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1188</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F231" t="n">
+        <v>566.3196</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-24295.37307591043</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1187</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2300.1556</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-24295.37307591043</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1187</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F233" t="n">
+        <v>7.8993</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-24295.37307591043</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1187</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F234" t="n">
+        <v>23.9276</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-24295.37307591043</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1194</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1194</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F235" t="n">
+        <v>690.9565991624791</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-23604.41647674795</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1193</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1193</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1191</v>
+      </c>
+      <c r="F236" t="n">
+        <v>13.4927</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-23617.90917674795</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1195</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1195</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1195</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1195</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1.859414225941423</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-23616.04976252201</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1191</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1191</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1191</v>
+      </c>
+      <c r="F238" t="n">
+        <v>614.8815</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-24230.931262522</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1191</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1186</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1191</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F239" t="n">
+        <v>6.9519</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-24237.883162522</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1176</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1181</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1176</v>
+      </c>
+      <c r="F240" t="n">
+        <v>4.3959</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-24242.279062522</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1176</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1176</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1175</v>
+      </c>
+      <c r="F241" t="n">
+        <v>51.8567</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-24294.135762522</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1178</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1178</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1178</v>
+      </c>
+      <c r="F242" t="n">
+        <v>29.0774</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-24265.05836252201</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1175</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1175</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1175</v>
+      </c>
+      <c r="F243" t="n">
+        <v>61.2931</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-24326.35146252201</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1178</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1184</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1184</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1188</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1163</v>
-      </c>
-      <c r="F184" t="n">
-        <v>23592.9077</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-26619.34363808832</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1184</v>
-      </c>
-      <c r="J184" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K184" t="inlineStr">
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1177</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1175</v>
+      </c>
+      <c r="F244" t="n">
+        <v>9.730700000000001</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-24326.35146252201</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1175</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1176</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1176</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1176</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1176</v>
-      </c>
-      <c r="F185" t="n">
-        <v>471</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-27090.34363808832</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1174</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1180</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1174</v>
-      </c>
-      <c r="F186" t="n">
-        <v>2778.7113</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-29869.05493808832</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1177</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1178</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1178</v>
-      </c>
-      <c r="E187" t="n">
-        <v>1177</v>
-      </c>
-      <c r="F187" t="n">
-        <v>616.0444</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-29253.01053808832</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1174</v>
-      </c>
-      <c r="J187" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1175</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1177</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1181</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1173</v>
-      </c>
-      <c r="F188" t="n">
-        <v>4019.2782</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-33272.28873808832</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1178</v>
-      </c>
-      <c r="J188" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1179</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1183</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1183</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1177</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1885.922</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-31386.36673808832</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1179</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1185</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1185</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1179</v>
-      </c>
-      <c r="F190" t="n">
-        <v>602.8193</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-30783.54743808832</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1183</v>
-      </c>
-      <c r="J190" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1183</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1184</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1184</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1183</v>
-      </c>
-      <c r="F191" t="n">
-        <v>263.6191</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-31047.16653808832</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1185</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1185</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1185</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1185</v>
-      </c>
-      <c r="F192" t="n">
-        <v>9</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-31038.16653808832</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1185</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1185</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1185</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1185</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1572.741</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-31038.16653808832</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1186</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1186</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1186</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1186</v>
-      </c>
-      <c r="F194" t="n">
-        <v>172.1778</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-30865.98873808832</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>1186</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1186</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1186</v>
-      </c>
-      <c r="E195" t="n">
-        <v>1186</v>
-      </c>
-      <c r="F195" t="n">
-        <v>6.8222</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-30865.98873808832</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>1186</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1186</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1186</v>
-      </c>
-      <c r="E196" t="n">
-        <v>1186</v>
-      </c>
-      <c r="F196" t="n">
-        <v>9.322100000000001</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-30865.98873808832</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1192</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1192</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1192</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1192</v>
-      </c>
-      <c r="F197" t="n">
-        <v>21.711</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-30844.27773808832</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1192</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1192</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1192</v>
-      </c>
-      <c r="E198" t="n">
-        <v>1192</v>
-      </c>
-      <c r="F198" t="n">
-        <v>3.2989</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-30844.27773808832</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1192</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1196</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1196</v>
-      </c>
-      <c r="E199" t="n">
-        <v>1192</v>
-      </c>
-      <c r="F199" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-30710.77773808832</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1197</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1197</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1197</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1197</v>
-      </c>
-      <c r="F200" t="n">
-        <v>325.5</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-30385.27773808832</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1198</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1203</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1203</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1198</v>
-      </c>
-      <c r="F201" t="n">
-        <v>179.9959621778886</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-30205.28177591043</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1202</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1202</v>
-      </c>
-      <c r="D202" t="n">
-        <v>1202</v>
-      </c>
-      <c r="E202" t="n">
-        <v>1202</v>
-      </c>
-      <c r="F202" t="n">
-        <v>727.7071</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-30932.98887591043</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1192</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1192</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1192</v>
-      </c>
-      <c r="E203" t="n">
-        <v>1192</v>
-      </c>
-      <c r="F203" t="n">
-        <v>345.3962</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-31278.38507591043</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1192</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1201</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1201</v>
-      </c>
-      <c r="E204" t="n">
-        <v>1192</v>
-      </c>
-      <c r="F204" t="n">
-        <v>103.8712</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-31174.51387591043</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1202</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1202</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1202</v>
-      </c>
-      <c r="E205" t="n">
-        <v>1202</v>
-      </c>
-      <c r="F205" t="n">
-        <v>20.8635</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-31153.65037591043</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1202</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1202</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1202</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1202</v>
-      </c>
-      <c r="F206" t="n">
-        <v>34.8519</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-31153.65037591043</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1201</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1201</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1201</v>
-      </c>
-      <c r="E207" t="n">
-        <v>1201</v>
-      </c>
-      <c r="F207" t="n">
-        <v>30</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-31183.65037591043</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>1201</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1197</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1204</v>
-      </c>
-      <c r="E208" t="n">
-        <v>1196</v>
-      </c>
-      <c r="F208" t="n">
-        <v>862.922</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-32046.57237591043</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1193</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1193</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1193</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1193</v>
-      </c>
-      <c r="F209" t="n">
-        <v>132.2501</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-32178.82247591043</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1193</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1192</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1193</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1192</v>
-      </c>
-      <c r="F210" t="n">
-        <v>511.2496</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-32690.07207591043</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1191</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1192</v>
-      </c>
-      <c r="D211" t="n">
-        <v>1192</v>
-      </c>
-      <c r="E211" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F211" t="n">
-        <v>970.7868999999999</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-32690.07207591043</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1192</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1192</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1192</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1192</v>
-      </c>
-      <c r="F212" t="n">
-        <v>708.1974</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-32690.07207591043</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1196</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1191</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1196</v>
-      </c>
-      <c r="E213" t="n">
-        <v>1191</v>
-      </c>
-      <c r="F213" t="n">
-        <v>10.7462</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-32700.81827591043</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>1187</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1187</v>
-      </c>
-      <c r="E214" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1.7955</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-32702.61377591043</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>1187</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1196</v>
-      </c>
-      <c r="D215" t="n">
-        <v>1198</v>
-      </c>
-      <c r="E215" t="n">
-        <v>1175</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2266.5263</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-30436.08747591043</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1196</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1196</v>
-      </c>
-      <c r="D216" t="n">
-        <v>1196</v>
-      </c>
-      <c r="E216" t="n">
-        <v>1196</v>
-      </c>
-      <c r="F216" t="n">
-        <v>50</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-30436.08747591043</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1195</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1191</v>
-      </c>
-      <c r="D217" t="n">
-        <v>1195</v>
-      </c>
-      <c r="E217" t="n">
-        <v>1191</v>
-      </c>
-      <c r="F217" t="n">
-        <v>56.8261</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-30492.91357591043</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1190</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1190</v>
-      </c>
-      <c r="D218" t="n">
-        <v>1190</v>
-      </c>
-      <c r="E218" t="n">
-        <v>1190</v>
-      </c>
-      <c r="F218" t="n">
-        <v>35.4009</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-30528.31447591043</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1189</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1185</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1189</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1185</v>
-      </c>
-      <c r="F219" t="n">
-        <v>505.7587</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-31034.07317591043</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1183</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1193</v>
-      </c>
-      <c r="D220" t="n">
-        <v>1193</v>
-      </c>
-      <c r="E220" t="n">
-        <v>1183</v>
-      </c>
-      <c r="F220" t="n">
-        <v>217.9397</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-30816.13347591043</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>1196</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1196</v>
-      </c>
-      <c r="D221" t="n">
-        <v>1196</v>
-      </c>
-      <c r="E221" t="n">
-        <v>1196</v>
-      </c>
-      <c r="F221" t="n">
-        <v>11.6239</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-30804.50957591043</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>1195</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1195</v>
-      </c>
-      <c r="D222" t="n">
-        <v>1195</v>
-      </c>
-      <c r="E222" t="n">
-        <v>1195</v>
-      </c>
-      <c r="F222" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-30833.00957591043</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>1197</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E223" t="n">
-        <v>1197</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1179.1679</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-29653.84167591043</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>1197</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1188</v>
-      </c>
-      <c r="D224" t="n">
-        <v>1197</v>
-      </c>
-      <c r="E224" t="n">
-        <v>1188</v>
-      </c>
-      <c r="F224" t="n">
-        <v>322.618</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-29976.45967591043</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1175</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1180</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1175</v>
-      </c>
-      <c r="F225" t="n">
-        <v>272.2252</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-30248.68487591043</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>1183</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1181</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1183</v>
-      </c>
-      <c r="E226" t="n">
-        <v>1181</v>
-      </c>
-      <c r="F226" t="n">
-        <v>351.4428</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-29897.24207591043</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>1182</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1181</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1182</v>
-      </c>
-      <c r="E227" t="n">
-        <v>1181</v>
-      </c>
-      <c r="F227" t="n">
-        <v>182.7676</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-29897.24207591043</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>1187</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1187</v>
-      </c>
-      <c r="E228" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F228" t="n">
-        <v>5601.869</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-24295.37307591043</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>1187</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1187</v>
-      </c>
-      <c r="E229" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F229" t="n">
-        <v>34.1701</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-24295.37307591043</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>1187</v>
-      </c>
-      <c r="C230" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D230" t="n">
-        <v>1187</v>
-      </c>
-      <c r="E230" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F230" t="n">
-        <v>1165.4372</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-24295.37307591043</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>1187</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D231" t="n">
-        <v>1188</v>
-      </c>
-      <c r="E231" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F231" t="n">
-        <v>566.3196</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-24295.37307591043</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>1187</v>
-      </c>
-      <c r="C232" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D232" t="n">
-        <v>1187</v>
-      </c>
-      <c r="E232" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2300.1556</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-24295.37307591043</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>1187</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D233" t="n">
-        <v>1187</v>
-      </c>
-      <c r="E233" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F233" t="n">
-        <v>7.8993</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-24295.37307591043</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>1187</v>
-      </c>
-      <c r="C234" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D234" t="n">
-        <v>1187</v>
-      </c>
-      <c r="E234" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F234" t="n">
-        <v>23.9276</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-24295.37307591043</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>1189</v>
-      </c>
-      <c r="C235" t="n">
-        <v>1194</v>
-      </c>
-      <c r="D235" t="n">
-        <v>1194</v>
-      </c>
-      <c r="E235" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F235" t="n">
-        <v>690.9565991624791</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-23604.41647674795</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>1193</v>
-      </c>
-      <c r="C236" t="n">
-        <v>1191</v>
-      </c>
-      <c r="D236" t="n">
-        <v>1193</v>
-      </c>
-      <c r="E236" t="n">
-        <v>1191</v>
-      </c>
-      <c r="F236" t="n">
-        <v>13.4927</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-23617.90917674795</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>1195</v>
-      </c>
-      <c r="C237" t="n">
-        <v>1195</v>
-      </c>
-      <c r="D237" t="n">
-        <v>1195</v>
-      </c>
-      <c r="E237" t="n">
-        <v>1195</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1.859414225941423</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-23616.04976252201</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>1191</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1191</v>
-      </c>
-      <c r="D238" t="n">
-        <v>1191</v>
-      </c>
-      <c r="E238" t="n">
-        <v>1191</v>
-      </c>
-      <c r="F238" t="n">
-        <v>614.8815</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-24230.931262522</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>1191</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1186</v>
-      </c>
-      <c r="D239" t="n">
-        <v>1191</v>
-      </c>
-      <c r="E239" t="n">
-        <v>1186</v>
-      </c>
-      <c r="F239" t="n">
-        <v>6.9519</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-24237.883162522</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>1181</v>
-      </c>
-      <c r="C240" t="n">
-        <v>1176</v>
-      </c>
-      <c r="D240" t="n">
-        <v>1181</v>
-      </c>
-      <c r="E240" t="n">
-        <v>1176</v>
-      </c>
-      <c r="F240" t="n">
-        <v>4.3959</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-24242.279062522</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>1176</v>
-      </c>
-      <c r="C241" t="n">
-        <v>1175</v>
-      </c>
-      <c r="D241" t="n">
-        <v>1176</v>
-      </c>
-      <c r="E241" t="n">
-        <v>1175</v>
-      </c>
-      <c r="F241" t="n">
-        <v>51.8567</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-24294.135762522</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1176</v>
-      </c>
-      <c r="J241" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>1178</v>
-      </c>
-      <c r="C242" t="n">
-        <v>1178</v>
-      </c>
-      <c r="D242" t="n">
-        <v>1178</v>
-      </c>
-      <c r="E242" t="n">
-        <v>1178</v>
-      </c>
-      <c r="F242" t="n">
-        <v>29.0774</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-24265.05836252201</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1175</v>
-      </c>
-      <c r="J242" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>1175</v>
-      </c>
-      <c r="C243" t="n">
-        <v>1175</v>
-      </c>
-      <c r="D243" t="n">
-        <v>1175</v>
-      </c>
-      <c r="E243" t="n">
-        <v>1175</v>
-      </c>
-      <c r="F243" t="n">
-        <v>61.2931</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-24326.35146252201</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1178</v>
-      </c>
-      <c r="J243" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>1177</v>
-      </c>
-      <c r="C244" t="n">
-        <v>1175</v>
-      </c>
-      <c r="D244" t="n">
-        <v>1177</v>
-      </c>
-      <c r="E244" t="n">
-        <v>1175</v>
-      </c>
-      <c r="F244" t="n">
-        <v>9.730700000000001</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-24326.35146252201</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1175</v>
-      </c>
-      <c r="J244" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +8496,7 @@
         <v>1175</v>
       </c>
       <c r="J245" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8911,7 +8537,7 @@
         <v>1180</v>
       </c>
       <c r="J246" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8952,7 +8578,7 @@
         <v>1181</v>
       </c>
       <c r="J247" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8993,7 +8619,7 @@
         <v>1182</v>
       </c>
       <c r="J248" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9034,7 +8660,7 @@
         <v>1180</v>
       </c>
       <c r="J249" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9075,7 +8701,7 @@
         <v>1176</v>
       </c>
       <c r="J250" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9110,11 +8736,13 @@
         <v>-23088.571362522</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1189</v>
+      </c>
       <c r="J251" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9155,7 +8783,7 @@
         <v>1176</v>
       </c>
       <c r="J252" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9196,7 +8824,7 @@
         <v>1176</v>
       </c>
       <c r="J253" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9237,7 +8865,7 @@
         <v>1181</v>
       </c>
       <c r="J254" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9276,7 +8904,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9315,7 +8943,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9354,7 +8982,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9393,7 +9021,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9432,7 +9060,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9471,7 +9099,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9510,7 +9138,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9549,7 +9177,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9588,7 +9216,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9627,7 +9255,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9666,7 +9294,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9705,7 +9333,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9744,7 +9372,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9783,7 +9411,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9822,7 +9450,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9861,7 +9489,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9900,7 +9528,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9939,7 +9567,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9978,7 +9606,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10017,7 +9645,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10056,7 +9684,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10095,7 +9723,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10134,7 +9762,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10173,7 +9801,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10212,7 +9840,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10251,7 +9879,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10290,7 +9918,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10329,7 +9957,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10368,7 +9996,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10407,7 +10035,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10446,7 +10074,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10485,7 +10113,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10524,7 +10152,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10563,7 +10191,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10602,7 +10230,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10641,7 +10269,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10680,7 +10308,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10719,7 +10347,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10758,7 +10386,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10797,7 +10425,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10836,7 +10464,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10875,7 +10503,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10914,7 +10542,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10953,7 +10581,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10992,7 +10620,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11031,7 +10659,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11070,7 +10698,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11109,7 +10737,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11148,7 +10776,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11187,7 +10815,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11226,7 +10854,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11265,7 +10893,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11304,7 +10932,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11343,7 +10971,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11382,7 +11010,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11421,7 +11049,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11460,7 +11088,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11499,7 +11127,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11538,7 +11166,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11577,7 +11205,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11616,7 +11244,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11655,7 +11283,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11694,7 +11322,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11733,7 +11361,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11772,7 +11400,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11811,7 +11439,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11850,7 +11478,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11889,7 +11517,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11924,483 +11552,569 @@
         <v>-16817.65836252199</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>1227</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1227</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1227</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1227</v>
+      </c>
+      <c r="F324" t="n">
+        <v>29.8587</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-16817.65836252199</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1228</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1228</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1228</v>
+      </c>
+      <c r="F325" t="n">
+        <v>98.4224</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-16719.23596252199</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1231</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1231</v>
+      </c>
+      <c r="F326" t="n">
+        <v>25.5685</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-16693.66746252199</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>1235</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1241</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1241</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1235</v>
+      </c>
+      <c r="F327" t="n">
+        <v>406.7474</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-16286.92006252199</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1241</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1241</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1241</v>
+      </c>
+      <c r="F328" t="n">
+        <v>15.4692</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-16286.92006252199</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1247</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1247</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1241</v>
+      </c>
+      <c r="F329" t="n">
+        <v>5170.7605</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-11116.15956252199</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>1249</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1258</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1258</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1249</v>
+      </c>
+      <c r="F330" t="n">
+        <v>237.2665</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-10878.89306252199</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>1262</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1267</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1267</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1262</v>
+      </c>
+      <c r="F331" t="n">
+        <v>1892.969393364929</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-8985.923669157064</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1269</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1275</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1275</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1269</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2696.1873</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-6289.736369157064</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1271</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1280</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1271</v>
+      </c>
+      <c r="F333" t="n">
+        <v>932.9047</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-7222.641069157065</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1271</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1251</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1271</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1251</v>
+      </c>
+      <c r="F334" t="n">
+        <v>125.4817</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-7348.122769157065</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1255</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1265</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1265</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1255</v>
+      </c>
+      <c r="F335" t="n">
+        <v>631.2</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-6716.922769157065</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1278</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1289</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1289</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1278</v>
+      </c>
+      <c r="F336" t="n">
+        <v>1469.5752</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-5247.347569157065</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1289</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1294</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1296</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1284</v>
+      </c>
+      <c r="F337" t="n">
+        <v>1169.074062363919</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-4078.273506793146</v>
+      </c>
+      <c r="H337" t="n">
+        <v>2</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K337" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L323" t="n">
-        <v>1.034830508474576</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>1227</v>
-      </c>
-      <c r="C324" t="n">
-        <v>1227</v>
-      </c>
-      <c r="D324" t="n">
-        <v>1227</v>
-      </c>
-      <c r="E324" t="n">
-        <v>1227</v>
-      </c>
-      <c r="F324" t="n">
-        <v>29.8587</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-16817.65836252199</v>
-      </c>
-      <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>1228</v>
-      </c>
-      <c r="C325" t="n">
-        <v>1228</v>
-      </c>
-      <c r="D325" t="n">
-        <v>1228</v>
-      </c>
-      <c r="E325" t="n">
-        <v>1228</v>
-      </c>
-      <c r="F325" t="n">
-        <v>98.4224</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-16719.23596252199</v>
-      </c>
-      <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>1231</v>
-      </c>
-      <c r="C326" t="n">
-        <v>1231</v>
-      </c>
-      <c r="D326" t="n">
-        <v>1231</v>
-      </c>
-      <c r="E326" t="n">
-        <v>1231</v>
-      </c>
-      <c r="F326" t="n">
-        <v>25.5685</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-16693.66746252199</v>
-      </c>
-      <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>1235</v>
-      </c>
-      <c r="C327" t="n">
-        <v>1241</v>
-      </c>
-      <c r="D327" t="n">
-        <v>1241</v>
-      </c>
-      <c r="E327" t="n">
-        <v>1235</v>
-      </c>
-      <c r="F327" t="n">
-        <v>406.7474</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-16286.92006252199</v>
-      </c>
-      <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>1241</v>
-      </c>
-      <c r="C328" t="n">
-        <v>1241</v>
-      </c>
-      <c r="D328" t="n">
-        <v>1241</v>
-      </c>
-      <c r="E328" t="n">
-        <v>1241</v>
-      </c>
-      <c r="F328" t="n">
-        <v>15.4692</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-16286.92006252199</v>
-      </c>
-      <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>1241</v>
-      </c>
-      <c r="C329" t="n">
-        <v>1247</v>
-      </c>
-      <c r="D329" t="n">
-        <v>1247</v>
-      </c>
-      <c r="E329" t="n">
-        <v>1241</v>
-      </c>
-      <c r="F329" t="n">
-        <v>5170.7605</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-11116.15956252199</v>
-      </c>
-      <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>1249</v>
-      </c>
-      <c r="C330" t="n">
-        <v>1258</v>
-      </c>
-      <c r="D330" t="n">
-        <v>1258</v>
-      </c>
-      <c r="E330" t="n">
-        <v>1249</v>
-      </c>
-      <c r="F330" t="n">
-        <v>237.2665</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-10878.89306252199</v>
-      </c>
-      <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>1262</v>
-      </c>
-      <c r="C331" t="n">
-        <v>1267</v>
-      </c>
-      <c r="D331" t="n">
-        <v>1267</v>
-      </c>
-      <c r="E331" t="n">
-        <v>1262</v>
-      </c>
-      <c r="F331" t="n">
-        <v>1892.969393364929</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-8985.923669157064</v>
-      </c>
-      <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>1269</v>
-      </c>
-      <c r="C332" t="n">
-        <v>1275</v>
-      </c>
-      <c r="D332" t="n">
-        <v>1275</v>
-      </c>
-      <c r="E332" t="n">
-        <v>1269</v>
-      </c>
-      <c r="F332" t="n">
-        <v>2696.1873</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-6289.736369157064</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>1280</v>
-      </c>
-      <c r="C333" t="n">
-        <v>1271</v>
-      </c>
-      <c r="D333" t="n">
-        <v>1280</v>
-      </c>
-      <c r="E333" t="n">
-        <v>1271</v>
-      </c>
-      <c r="F333" t="n">
-        <v>932.9047</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-7222.641069157065</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>1271</v>
-      </c>
-      <c r="C334" t="n">
-        <v>1251</v>
-      </c>
-      <c r="D334" t="n">
-        <v>1271</v>
-      </c>
-      <c r="E334" t="n">
-        <v>1251</v>
-      </c>
-      <c r="F334" t="n">
-        <v>125.4817</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-7348.122769157065</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>1255</v>
-      </c>
-      <c r="C335" t="n">
-        <v>1265</v>
-      </c>
-      <c r="D335" t="n">
-        <v>1265</v>
-      </c>
-      <c r="E335" t="n">
-        <v>1255</v>
-      </c>
-      <c r="F335" t="n">
-        <v>631.2</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-6716.922769157065</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>1278</v>
-      </c>
-      <c r="C336" t="n">
-        <v>1289</v>
-      </c>
-      <c r="D336" t="n">
-        <v>1289</v>
-      </c>
-      <c r="E336" t="n">
-        <v>1278</v>
-      </c>
-      <c r="F336" t="n">
-        <v>1469.5752</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-5247.347569157065</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>1289</v>
-      </c>
-      <c r="C337" t="n">
-        <v>1294</v>
-      </c>
-      <c r="D337" t="n">
-        <v>1296</v>
-      </c>
-      <c r="E337" t="n">
-        <v>1284</v>
-      </c>
-      <c r="F337" t="n">
-        <v>1169.074062363919</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-4078.273506793146</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+        <v>1.096276595744681</v>
+      </c>
+      <c r="M337" t="n">
+        <v>1.091143594153053</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12425,7 +12139,7 @@
         <v>-4105.763506793146</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12458,7 +12172,7 @@
         <v>-4252.801706793146</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12491,7 +12205,7 @@
         <v>-7472.822606793146</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12524,7 +12238,7 @@
         <v>-4658.102134980003</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13151,7 +12865,7 @@
         <v>-3331.515972031796</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13184,7 +12898,7 @@
         <v>-5003.013872031795</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13217,7 +12931,7 @@
         <v>-4290.263672031795</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13250,7 +12964,7 @@
         <v>-6397.998272031795</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13283,7 +12997,7 @@
         <v>-7386.951672031795</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
